--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS10.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS10.xlsx
@@ -19,7 +19,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="141">
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
   <si>
     <t>Signal_Value_42</t>
   </si>
@@ -240,6 +339,33 @@
     <t>Signal_Value_114</t>
   </si>
   <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -312,10 +438,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -676,15 +799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV6"/>
+  <dimension ref="A1:DL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:116">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -905,10 +1028,136 @@
       <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:116">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -917,100 +1166,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002987817532721782</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="E2">
-        <v>0.008561570552908569</v>
+        <v>3.927316307338221E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001629695731079015</v>
+        <v>0.0981180020530633</v>
       </c>
       <c r="G2">
-        <v>0.02887211278060888</v>
+        <v>0.0951889927174446</v>
       </c>
       <c r="H2">
-        <v>0.0001159032954816095</v>
+        <v>0.005959422112976141</v>
       </c>
       <c r="I2">
-        <v>0.02119416730697457</v>
+        <v>0.005134281349906211</v>
       </c>
       <c r="J2">
-        <v>0.005984718223267894</v>
+        <v>0.00123066225645345</v>
       </c>
       <c r="K2">
-        <v>0.0005750861901063263</v>
+        <v>0.03750894129677174</v>
       </c>
       <c r="L2">
-        <v>0.0004443817633191381</v>
+        <v>0.1562658164122252</v>
       </c>
       <c r="M2">
-        <v>0.00254915723594339</v>
+        <v>0.02765310014078907</v>
       </c>
       <c r="N2">
-        <v>0.07494557058820575</v>
+        <v>0.01050948875117705</v>
       </c>
       <c r="O2">
-        <v>0.05968136655203116</v>
+        <v>0.04630949897897275</v>
       </c>
       <c r="P2">
-        <v>0.004868806240523104</v>
+        <v>0.003192422214769474</v>
       </c>
       <c r="Q2">
-        <v>0.06324234571952689</v>
+        <v>0.001618965124572789</v>
       </c>
       <c r="R2">
-        <v>0.05716606982166623</v>
+        <v>0.04934202156410573</v>
       </c>
       <c r="S2">
-        <v>0.05448611551405614</v>
+        <v>0.03029038521271964</v>
       </c>
       <c r="T2">
-        <v>0.03640993234293491</v>
+        <v>0.04057048902951976</v>
       </c>
       <c r="U2">
-        <v>0.0004673502246014934</v>
+        <v>0.0118133656559846</v>
       </c>
       <c r="V2">
-        <v>0.02336475073226243</v>
+        <v>0.001218667244444487</v>
       </c>
       <c r="W2">
-        <v>0.03593734830019697</v>
+        <v>0.02588783478406121</v>
       </c>
       <c r="X2">
-        <v>0.06349179210440895</v>
+        <v>0.08217489910124821</v>
       </c>
       <c r="Y2">
-        <v>0.1254406015503178</v>
+        <v>0.03282319597886141</v>
       </c>
       <c r="Z2">
-        <v>0.08818169718450748</v>
+        <v>0.01884543126621924</v>
       </c>
       <c r="AA2">
-        <v>0.003571834421906715</v>
+        <v>0.01358567168601698</v>
       </c>
       <c r="AB2">
-        <v>0.01612566168691321</v>
+        <v>0.03441609370853816</v>
       </c>
       <c r="AC2">
-        <v>0.03583941198146764</v>
+        <v>0.0005632624367960784</v>
       </c>
       <c r="AD2">
-        <v>0.06459235177164728</v>
+        <v>0.001229999907702187</v>
       </c>
       <c r="AE2">
-        <v>0.05132501316065233</v>
+        <v>0.001147925296218899</v>
       </c>
       <c r="AF2">
-        <v>0.01893044273465417</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01899570975723145</v>
+        <v>0.03008507488560983</v>
       </c>
       <c r="AH2">
-        <v>0.02314136867140325</v>
+        <v>0.009838245860937317</v>
       </c>
       <c r="AI2">
-        <v>0.008346574484444234</v>
+        <v>0.0003689503066385615</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1129,10 +1378,136 @@
       <c r="BV2">
         <v>0</v>
       </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:116">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1255,108 +1630,234 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01149993943284513</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0178508726443021</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.01176384009739762</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.01621217737984532</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.02419017832214732</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001101581295981241</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003392371905704442</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.002480422146964451</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.02151854924299151</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.1090596950002626</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01185066685170327</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.04900387547463244</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.07505942191738968</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.03553460099308772</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.03204716833990345</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01668938332800617</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.002504096272545019</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0278201564615695</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.03800011137229924</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.09436023158447894</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.1241179807599982</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.03916746903221804</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.002951061931557049</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.02646271576284445</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.04411315454320124</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.06226798997626284</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.02659693504041453</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01839209452720226</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.02552469981098418</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.02207155208524072</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0008124097430437568</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.006574019889358578</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
       </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0.108750512106233</v>
+      </c>
+      <c r="CH3">
+        <v>0.03348819307929303</v>
+      </c>
+      <c r="CI3">
+        <v>0.2188891767974041</v>
+      </c>
+      <c r="CJ3">
+        <v>0.03299822133394741</v>
+      </c>
+      <c r="CK3">
+        <v>0.01944323352372731</v>
+      </c>
+      <c r="CL3">
+        <v>0.01808441288392523</v>
+      </c>
+      <c r="CM3">
+        <v>0.01898351494042469</v>
+      </c>
+      <c r="CN3">
+        <v>0.07910107971115153</v>
+      </c>
+      <c r="CO3">
+        <v>0.04476155369992275</v>
+      </c>
+      <c r="CP3">
+        <v>0.004771043987909325</v>
+      </c>
+      <c r="CQ3">
+        <v>0.004120814136383912</v>
+      </c>
+      <c r="CR3">
+        <v>0.01699827587229275</v>
+      </c>
+      <c r="CS3">
+        <v>0.0003302519209216367</v>
+      </c>
+      <c r="CT3">
+        <v>0.001940084818660745</v>
+      </c>
+      <c r="CU3">
+        <v>0.05302308195324217</v>
+      </c>
+      <c r="CV3">
+        <v>0.1039144191596301</v>
+      </c>
+      <c r="CW3">
+        <v>0.01891326271912656</v>
+      </c>
+      <c r="CX3">
+        <v>0.02501194181420155</v>
+      </c>
+      <c r="CY3">
+        <v>0.001743342834488042</v>
+      </c>
+      <c r="CZ3">
+        <v>0.002198031832631905</v>
+      </c>
+      <c r="DA3">
+        <v>0.02793203268603546</v>
+      </c>
+      <c r="DB3">
+        <v>0.07817121384774842</v>
+      </c>
+      <c r="DC3">
+        <v>0.007950845538255173</v>
+      </c>
+      <c r="DD3">
+        <v>0.03645466631361156</v>
+      </c>
+      <c r="DE3">
+        <v>0.01093501312618505</v>
+      </c>
+      <c r="DF3">
+        <v>0.002233296273239655</v>
+      </c>
+      <c r="DG3">
+        <v>4.833077814199265E-05</v>
+      </c>
+      <c r="DH3">
+        <v>0.004906087731119736</v>
+      </c>
+      <c r="DI3">
+        <v>0.002502205954622217</v>
+      </c>
+      <c r="DJ3">
+        <v>0.01998982235120037</v>
+      </c>
+      <c r="DK3">
+        <v>0.0004415561337195851</v>
+      </c>
+      <c r="DL3">
+        <v>0.0009704801406031513</v>
+      </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:116">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1476,100 +1977,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003870273423899408</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.009136600517207032</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001331088021822691</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.03325028326364902</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.637837149413883E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.02297000344190394</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.007715680509515667</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0009728831815160149</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001230889577128355</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0007583445774399667</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.07126089066410574</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.07289412052064642</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001157417027246809</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04837372825871487</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.04214803062605022</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.05976767698958331</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.06560569546031274</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.004099896737947774</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.02715943679752864</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.03906140835212026</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.05641037754044372</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.1155941790318675</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.09510756534970188</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.007435710337803709</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0148028838025493</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.02751028427110289</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.05164493957955832</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.05338145186561097</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01792004913606511</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01721420662443202</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01915806424126817</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01101956189976319</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -1577,10 +2078,136 @@
       <c r="BV4">
         <v>0</v>
       </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0.1006016485948608</v>
+      </c>
+      <c r="CG4">
+        <v>0.002632437608036414</v>
+      </c>
+      <c r="CH4">
+        <v>0.08331100494627997</v>
+      </c>
+      <c r="CI4">
+        <v>0.1138804387186195</v>
+      </c>
+      <c r="CJ4">
+        <v>0.0003804166924296333</v>
+      </c>
+      <c r="CK4">
+        <v>0.03612998928193701</v>
+      </c>
+      <c r="CL4">
+        <v>0.009170188166950926</v>
+      </c>
+      <c r="CM4">
+        <v>0.01405254052399342</v>
+      </c>
+      <c r="CN4">
+        <v>0.09149998495591811</v>
+      </c>
+      <c r="CO4">
+        <v>0.02115634280804305</v>
+      </c>
+      <c r="CP4">
+        <v>0.0130808667466551</v>
+      </c>
+      <c r="CQ4">
+        <v>0.07067846324447047</v>
+      </c>
+      <c r="CR4">
+        <v>0.02457430931186367</v>
+      </c>
+      <c r="CS4">
+        <v>0.01557996503641902</v>
+      </c>
+      <c r="CT4">
+        <v>0.006463019518149976</v>
+      </c>
+      <c r="CU4">
+        <v>0.07852592802746915</v>
+      </c>
+      <c r="CV4">
+        <v>0.08362782174114515</v>
+      </c>
+      <c r="CW4">
+        <v>7.772557730478418E-06</v>
+      </c>
+      <c r="CX4">
+        <v>0.04466721821614405</v>
+      </c>
+      <c r="CY4">
+        <v>0.01371592533561248</v>
+      </c>
+      <c r="CZ4">
+        <v>0.02402168481621533</v>
+      </c>
+      <c r="DA4">
+        <v>0.05378731692419202</v>
+      </c>
+      <c r="DB4">
+        <v>0.0264646450295026</v>
+      </c>
+      <c r="DC4">
+        <v>0.007718036990671231</v>
+      </c>
+      <c r="DD4">
+        <v>0.02909898893602855</v>
+      </c>
+      <c r="DE4">
+        <v>0.00300586877481001</v>
+      </c>
+      <c r="DF4">
+        <v>2.752499651120763E-05</v>
+      </c>
+      <c r="DG4">
+        <v>0.00249510344358026</v>
+      </c>
+      <c r="DH4">
+        <v>0.0006910605378337081</v>
+      </c>
+      <c r="DI4">
+        <v>0.008754592415848037</v>
+      </c>
+      <c r="DJ4">
+        <v>0.01515379024031819</v>
+      </c>
+      <c r="DK4">
+        <v>0.00504510486176035</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:116">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1700,100 +2327,100 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002979415042099227</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.008165729192439387</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002444866042156225</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.03206038401443193</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.003573853067735629</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.029140612313507</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.02484172512376036</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.228436847622909E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002043189489586994</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002240304890473738</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.05809946584796366</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.07639154719738947</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0004083330767083187</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.05865881729683434</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.08269873872461669</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.05292251428859178</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.03156144494468425</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.004352827842111466</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01405112627490668</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.04702334431425209</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.06591313255172955</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0961352618746521</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.08244702436071476</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01456068149908959</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.007919509263059359</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.03386597042926737</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.05352973316405065</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.05152917507851899</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02100629612599932</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01535554509723045</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01566919997015068</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.008387947232811487</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1801,10 +2428,136 @@
       <c r="BV5">
         <v>0</v>
       </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0.02201982445820207</v>
+      </c>
+      <c r="CD5">
+        <v>0.02629285259532085</v>
+      </c>
+      <c r="CE5">
+        <v>0.0181248620650944</v>
+      </c>
+      <c r="CF5">
+        <v>0.1138876083510995</v>
+      </c>
+      <c r="CG5">
+        <v>0.0002400650198276616</v>
+      </c>
+      <c r="CH5">
+        <v>0.0008005513705110971</v>
+      </c>
+      <c r="CI5">
+        <v>0.0008005513705110971</v>
+      </c>
+      <c r="CJ5">
+        <v>0.02329439338946379</v>
+      </c>
+      <c r="CK5">
+        <v>0.001215877698411639</v>
+      </c>
+      <c r="CL5">
+        <v>0.2247722999906351</v>
+      </c>
+      <c r="CM5">
+        <v>0.03490042080107771</v>
+      </c>
+      <c r="CN5">
+        <v>0.038178422914378</v>
+      </c>
+      <c r="CO5">
+        <v>0.01409394247675</v>
+      </c>
+      <c r="CP5">
+        <v>0.06018808382933968</v>
+      </c>
+      <c r="CQ5">
+        <v>0.04997346678916968</v>
+      </c>
+      <c r="CR5">
+        <v>0.002796857034144416</v>
+      </c>
+      <c r="CS5">
+        <v>0.0007512299276764832</v>
+      </c>
+      <c r="CT5">
+        <v>0.01730425023567455</v>
+      </c>
+      <c r="CU5">
+        <v>0.05456182495781757</v>
+      </c>
+      <c r="CV5">
+        <v>0.004733573510353114</v>
+      </c>
+      <c r="CW5">
+        <v>0.04708565601429788</v>
+      </c>
+      <c r="CX5">
+        <v>0.09759846443695429</v>
+      </c>
+      <c r="CY5">
+        <v>0.03423523074186886</v>
+      </c>
+      <c r="CZ5">
+        <v>0.04893860436602115</v>
+      </c>
+      <c r="DA5">
+        <v>0.02086988322056587</v>
+      </c>
+      <c r="DB5">
+        <v>0.0002588321031712465</v>
+      </c>
+      <c r="DC5">
+        <v>0.001470497978373411</v>
+      </c>
+      <c r="DD5">
+        <v>0.01372132446356409</v>
+      </c>
+      <c r="DE5">
+        <v>0.01243476306111686</v>
+      </c>
+      <c r="DF5">
+        <v>0.003921316685520356</v>
+      </c>
+      <c r="DG5">
+        <v>0.0007757120310635759</v>
+      </c>
+      <c r="DH5">
+        <v>0.009758756112023922</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:116">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1930,100 +2683,226 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03155888319575428</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.03773831697928156</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="AS6">
-        <v>0.02030521029480072</v>
+        <v>0.03389138198992397</v>
       </c>
       <c r="AT6">
-        <v>0.01720558156200364</v>
+        <v>0.1334246044983805</v>
       </c>
       <c r="AU6">
-        <v>0.04039171468973059</v>
+        <v>0.02079920359982118</v>
       </c>
       <c r="AV6">
-        <v>0.001444839051331737</v>
+        <v>0.001690643672876004</v>
       </c>
       <c r="AW6">
-        <v>0.0002069678227067938</v>
+        <v>0.001056760535854477</v>
       </c>
       <c r="AX6">
-        <v>0.0001585289452180167</v>
+        <v>0.02599028634174524</v>
       </c>
       <c r="AY6">
-        <v>0.04245686856838946</v>
+        <v>0.162659906175826</v>
       </c>
       <c r="AZ6">
-        <v>0.09301569250769028</v>
+        <v>0.04606963648227479</v>
       </c>
       <c r="BA6">
-        <v>0.01335835732609881</v>
+        <v>0.0008533495682374816</v>
       </c>
       <c r="BB6">
-        <v>0.02616388428020926</v>
+        <v>1.333874118889473E-06</v>
       </c>
       <c r="BC6">
-        <v>0.06944793520702132</v>
+        <v>0.002535858678087245</v>
       </c>
       <c r="BD6">
-        <v>0.07022666565957029</v>
+        <v>0.006241904529801337</v>
       </c>
       <c r="BE6">
-        <v>0.05751524326695401</v>
+        <v>0.005594971893249401</v>
       </c>
       <c r="BF6">
-        <v>0.01030870655927049</v>
+        <v>0.03028982895727811</v>
       </c>
       <c r="BG6">
-        <v>0.01156703322406274</v>
+        <v>0.06306743631478962</v>
       </c>
       <c r="BH6">
-        <v>0.04648714783092239</v>
+        <v>0.06339344307152858</v>
       </c>
       <c r="BI6">
-        <v>0.04878752424036271</v>
+        <v>0.006487153565821649</v>
       </c>
       <c r="BJ6">
-        <v>0.07856591430004192</v>
+        <v>0.0009131643796696152</v>
       </c>
       <c r="BK6">
-        <v>0.08676981493713082</v>
+        <v>0.00127524131071238</v>
       </c>
       <c r="BL6">
-        <v>0.03006098022934214</v>
+        <v>0.05645052618963831</v>
       </c>
       <c r="BM6">
-        <v>0.001826217943556697</v>
+        <v>0.1032765345504487</v>
       </c>
       <c r="BN6">
-        <v>0.02375331447964284</v>
+        <v>0.01560285764679338</v>
       </c>
       <c r="BO6">
-        <v>0.03401078942841276</v>
+        <v>0.02558210961854962</v>
       </c>
       <c r="BP6">
-        <v>0.04440059705888528</v>
+        <v>0.002172990337926576</v>
       </c>
       <c r="BQ6">
-        <v>0.02137904592031439</v>
+        <v>0.007482849840225969</v>
       </c>
       <c r="BR6">
-        <v>0.01072322990398963</v>
+        <v>0.006756461990530864</v>
       </c>
       <c r="BS6">
-        <v>0.01286478361917151</v>
+        <v>0.004403810847854172</v>
       </c>
       <c r="BT6">
-        <v>0.01209255943200713</v>
+        <v>2.546832483649616E-05</v>
       </c>
       <c r="BU6">
-        <v>0.001229457657335674</v>
+        <v>0.04022108201949563</v>
       </c>
       <c r="BV6">
-        <v>0.003978193878790469</v>
+        <v>0.0009137077242641801</v>
+      </c>
+      <c r="BW6">
+        <v>0.001828778413952761</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2033,15 +2912,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV6"/>
+  <dimension ref="A1:DL6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:116">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2262,10 +3141,136 @@
       <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:116">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2274,222 +3279,348 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002987817532721782</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="E2">
-        <v>0.01154938808563035</v>
+        <v>0.1271088926652559</v>
       </c>
       <c r="F2">
-        <v>0.01171235765873825</v>
+        <v>0.2252268947183192</v>
       </c>
       <c r="G2">
-        <v>0.04058447043934713</v>
+        <v>0.3204158874357638</v>
       </c>
       <c r="H2">
-        <v>0.04070037373482874</v>
+        <v>0.3263753095487399</v>
       </c>
       <c r="I2">
-        <v>0.06189454104180332</v>
+        <v>0.3315095908986461</v>
       </c>
       <c r="J2">
-        <v>0.06787925926507121</v>
+        <v>0.3327402531550996</v>
       </c>
       <c r="K2">
-        <v>0.06845434545517753</v>
+        <v>0.3702491944518713</v>
       </c>
       <c r="L2">
-        <v>0.06889872721849667</v>
+        <v>0.5265150108640966</v>
       </c>
       <c r="M2">
-        <v>0.07144788445444006</v>
+        <v>0.5541681110048856</v>
       </c>
       <c r="N2">
-        <v>0.1463934550426458</v>
+        <v>0.5646775997560627</v>
       </c>
       <c r="O2">
-        <v>0.206074821594677</v>
+        <v>0.6109870987350354</v>
       </c>
       <c r="P2">
-        <v>0.2109436278352001</v>
+        <v>0.6141795209498049</v>
       </c>
       <c r="Q2">
-        <v>0.274185973554727</v>
+        <v>0.6157984860743777</v>
       </c>
       <c r="R2">
-        <v>0.3313520433763932</v>
+        <v>0.6651405076384834</v>
       </c>
       <c r="S2">
-        <v>0.3858381588904493</v>
+        <v>0.6954308928512031</v>
       </c>
       <c r="T2">
-        <v>0.4222480912333842</v>
+        <v>0.7360013818807228</v>
       </c>
       <c r="U2">
-        <v>0.4227154414579857</v>
+        <v>0.7478147475367074</v>
       </c>
       <c r="V2">
-        <v>0.4460801921902482</v>
+        <v>0.7490334147811519</v>
       </c>
       <c r="W2">
-        <v>0.4820175404904452</v>
+        <v>0.7749212495652131</v>
       </c>
       <c r="X2">
-        <v>0.5455093325948541</v>
+        <v>0.8570961486664613</v>
       </c>
       <c r="Y2">
-        <v>0.6709499341451719</v>
+        <v>0.8899193446453227</v>
       </c>
       <c r="Z2">
-        <v>0.7591316313296794</v>
+        <v>0.908764775911542</v>
       </c>
       <c r="AA2">
-        <v>0.7627034657515861</v>
+        <v>0.922350447597559</v>
       </c>
       <c r="AB2">
-        <v>0.7788291274384993</v>
+        <v>0.9567665413060972</v>
       </c>
       <c r="AC2">
-        <v>0.814668539419967</v>
+        <v>0.9573298037428932</v>
       </c>
       <c r="AD2">
-        <v>0.8792608911916142</v>
+        <v>0.9585598036505955</v>
       </c>
       <c r="AE2">
-        <v>0.9305859043522665</v>
+        <v>0.9597077289468143</v>
       </c>
       <c r="AF2">
-        <v>0.9495163470869207</v>
+        <v>0.9597077289468143</v>
       </c>
       <c r="AG2">
-        <v>0.9685120568441521</v>
+        <v>0.9897928038324242</v>
       </c>
       <c r="AH2">
-        <v>0.9916534255155554</v>
+        <v>0.9996310496933615</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:116">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2612,108 +3743,234 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01149993943284513</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.02935081207714723</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.04111465217454485</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.05732682955439018</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.08151700787653748</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.08162716600613561</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.08501953791184005</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0874999600588045</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.109018509301796</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.2180782043020586</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2299288711537619</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.2789327466283943</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.353992168545784</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.3895267695388717</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.4215739378787752</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.4382633212067814</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.4407674174793264</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.4685875739408958</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.5065876853131951</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.600947916897674</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.7250658976576722</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.7642333666898902</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.7671844286214472</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.7936471443842916</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.8377602989274928</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.9000282889037556</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.9266252239441701</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.9450173184713724</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.9705420182823565</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.9926135703675972</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.993425980110641</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0.108750512106233</v>
+      </c>
+      <c r="CH3">
+        <v>0.1422387051855261</v>
+      </c>
+      <c r="CI3">
+        <v>0.3611278819829302</v>
+      </c>
+      <c r="CJ3">
+        <v>0.3941261033168776</v>
+      </c>
+      <c r="CK3">
+        <v>0.4135693368406049</v>
+      </c>
+      <c r="CL3">
+        <v>0.4316537497245301</v>
+      </c>
+      <c r="CM3">
+        <v>0.4506372646649548</v>
+      </c>
+      <c r="CN3">
+        <v>0.5297383443761063</v>
+      </c>
+      <c r="CO3">
+        <v>0.5744998980760291</v>
+      </c>
+      <c r="CP3">
+        <v>0.5792709420639384</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5833917562003222</v>
+      </c>
+      <c r="CR3">
+        <v>0.600390032072615</v>
+      </c>
+      <c r="CS3">
+        <v>0.6007202839935366</v>
+      </c>
+      <c r="CT3">
+        <v>0.6026603688121973</v>
+      </c>
+      <c r="CU3">
+        <v>0.6556834507654394</v>
+      </c>
+      <c r="CV3">
+        <v>0.7595978699250695</v>
+      </c>
+      <c r="CW3">
+        <v>0.778511132644196</v>
+      </c>
+      <c r="CX3">
+        <v>0.8035230744583975</v>
+      </c>
+      <c r="CY3">
+        <v>0.8052664172928856</v>
+      </c>
+      <c r="CZ3">
+        <v>0.8074644491255175</v>
+      </c>
+      <c r="DA3">
+        <v>0.835396481811553</v>
+      </c>
+      <c r="DB3">
+        <v>0.9135676956593014</v>
+      </c>
+      <c r="DC3">
+        <v>0.9215185411975566</v>
+      </c>
+      <c r="DD3">
+        <v>0.9579732075111682</v>
+      </c>
+      <c r="DE3">
+        <v>0.9689082206373533</v>
+      </c>
+      <c r="DF3">
+        <v>0.9711415169105929</v>
+      </c>
+      <c r="DG3">
+        <v>0.971189847688735</v>
+      </c>
+      <c r="DH3">
+        <v>0.9760959354198547</v>
+      </c>
+      <c r="DI3">
+        <v>0.978598141374477</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9985879637256774</v>
+      </c>
+      <c r="DK3">
+        <v>0.9990295198593969</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:116">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2833,335 +4090,587 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003870273423899408</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.01300687394110644</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01433796196292913</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.04758824522657815</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.04762462359807228</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.07059462703997622</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.07831030754949189</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.07928319073100791</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.08051408030813627</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.08127242488557623</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.152533315549682</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.2254274360703284</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.2265848530975752</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.2749585813562901</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.3171066119823403</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.3768742889719236</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.4424799844322364</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.4465798811701841</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.4737393179677127</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.512800726319833</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.5692111038602767</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.6848052828921443</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.7799128482418461</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.7873485585796498</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.8021514423821992</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.8296617266533021</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.8813066662328604</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.9346881180984713</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.9526081672345365</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.9698223738589685</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.9889804381002367</v>
+        <v>0</v>
       </c>
       <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0.1006016485948608</v>
+      </c>
+      <c r="CG4">
+        <v>0.1032340862028972</v>
+      </c>
+      <c r="CH4">
+        <v>0.1865450911491772</v>
+      </c>
+      <c r="CI4">
+        <v>0.3004255298677966</v>
+      </c>
+      <c r="CJ4">
+        <v>0.3008059465602262</v>
+      </c>
+      <c r="CK4">
+        <v>0.3369359358421632</v>
+      </c>
+      <c r="CL4">
+        <v>0.3461061240091142</v>
+      </c>
+      <c r="CM4">
+        <v>0.3601586645331076</v>
+      </c>
+      <c r="CN4">
+        <v>0.4516586494890257</v>
+      </c>
+      <c r="CO4">
+        <v>0.4728149922970687</v>
+      </c>
+      <c r="CP4">
+        <v>0.4858958590437238</v>
+      </c>
+      <c r="CQ4">
+        <v>0.5565743222881943</v>
+      </c>
+      <c r="CR4">
+        <v>0.5811486316000579</v>
+      </c>
+      <c r="CS4">
+        <v>0.5967285966364769</v>
+      </c>
+      <c r="CT4">
+        <v>0.6031916161546269</v>
+      </c>
+      <c r="CU4">
+        <v>0.6817175441820961</v>
+      </c>
+      <c r="CV4">
+        <v>0.7653453659232412</v>
+      </c>
+      <c r="CW4">
+        <v>0.7653531384809716</v>
+      </c>
+      <c r="CX4">
+        <v>0.8100203566971157</v>
+      </c>
+      <c r="CY4">
+        <v>0.8237362820327282</v>
+      </c>
+      <c r="CZ4">
+        <v>0.8477579668489436</v>
+      </c>
+      <c r="DA4">
+        <v>0.9015452837731356</v>
+      </c>
+      <c r="DB4">
+        <v>0.9280099288026382</v>
+      </c>
+      <c r="DC4">
+        <v>0.9357279657933094</v>
+      </c>
+      <c r="DD4">
+        <v>0.964826954729338</v>
+      </c>
+      <c r="DE4">
+        <v>0.967832823504148</v>
+      </c>
+      <c r="DF4">
+        <v>0.9678603485006592</v>
+      </c>
+      <c r="DG4">
+        <v>0.9703554519442394</v>
+      </c>
+      <c r="DH4">
+        <v>0.9710465124820732</v>
+      </c>
+      <c r="DI4">
+        <v>0.9798011048979213</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9949548951382394</v>
+      </c>
+      <c r="DK4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0.02201982445820207</v>
+      </c>
+      <c r="CD5">
+        <v>0.04831267705352291</v>
+      </c>
+      <c r="CE5">
+        <v>0.06643753911861731</v>
+      </c>
+      <c r="CF5">
+        <v>0.1803251474697168</v>
+      </c>
+      <c r="CG5">
+        <v>0.1805652124895444</v>
+      </c>
+      <c r="CH5">
+        <v>0.1813657638600555</v>
+      </c>
+      <c r="CI5">
+        <v>0.1821663152305666</v>
+      </c>
+      <c r="CJ5">
+        <v>0.2054607086200304</v>
+      </c>
+      <c r="CK5">
+        <v>0.2066765863184421</v>
+      </c>
+      <c r="CL5">
+        <v>0.4314488863090772</v>
+      </c>
+      <c r="CM5">
+        <v>0.4663493071101549</v>
+      </c>
+      <c r="CN5">
+        <v>0.5045277300245329</v>
+      </c>
+      <c r="CO5">
+        <v>0.5186216725012829</v>
+      </c>
+      <c r="CP5">
+        <v>0.5788097563306226</v>
+      </c>
+      <c r="CQ5">
+        <v>0.6287832231197923</v>
+      </c>
+      <c r="CR5">
+        <v>0.6315800801539367</v>
+      </c>
+      <c r="CS5">
+        <v>0.6323313100816133</v>
+      </c>
+      <c r="CT5">
+        <v>0.6496355603172878</v>
+      </c>
+      <c r="CU5">
+        <v>0.7041973852751053</v>
+      </c>
+      <c r="CV5">
+        <v>0.7089309587854584</v>
+      </c>
+      <c r="CW5">
+        <v>0.7560166147997563</v>
+      </c>
+      <c r="CX5">
+        <v>0.8536150792367106</v>
+      </c>
+      <c r="CY5">
+        <v>0.8878503099785795</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9367889143446007</v>
+      </c>
+      <c r="DA5">
+        <v>0.9576587975651665</v>
+      </c>
+      <c r="DB5">
+        <v>0.9579176296683377</v>
+      </c>
+      <c r="DC5">
+        <v>0.9593881276467111</v>
+      </c>
+      <c r="DD5">
+        <v>0.9731094521102752</v>
+      </c>
+      <c r="DE5">
+        <v>0.9855442151713921</v>
+      </c>
+      <c r="DF5">
+        <v>0.9894655318569124</v>
+      </c>
+      <c r="DG5">
+        <v>0.990241243887976</v>
+      </c>
+      <c r="DH5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BU4">
+      <c r="DI5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="BV4">
+      <c r="DJ5">
         <v>0.9999999999999999</v>
       </c>
+      <c r="DK5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL5">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:74">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0.002979415042099227</v>
-      </c>
-      <c r="AP5">
-        <v>0.01114514423453861</v>
-      </c>
-      <c r="AQ5">
-        <v>0.01359001027669484</v>
-      </c>
-      <c r="AR5">
-        <v>0.04565039429112677</v>
-      </c>
-      <c r="AS5">
-        <v>0.0492242473588624</v>
-      </c>
-      <c r="AT5">
-        <v>0.07836485967236941</v>
-      </c>
-      <c r="AU5">
-        <v>0.1032065847961298</v>
-      </c>
-      <c r="AV5">
-        <v>0.103228869164606</v>
-      </c>
-      <c r="AW5">
-        <v>0.105272058654193</v>
-      </c>
-      <c r="AX5">
-        <v>0.1075123635446667</v>
-      </c>
-      <c r="AY5">
-        <v>0.1656118293926304</v>
-      </c>
-      <c r="AZ5">
-        <v>0.2420033765900199</v>
-      </c>
-      <c r="BA5">
-        <v>0.2424117096667282</v>
-      </c>
-      <c r="BB5">
-        <v>0.3010705269635625</v>
-      </c>
-      <c r="BC5">
-        <v>0.3837692656881792</v>
-      </c>
-      <c r="BD5">
-        <v>0.436691779976771</v>
-      </c>
-      <c r="BE5">
-        <v>0.4682532249214553</v>
-      </c>
-      <c r="BF5">
-        <v>0.4726060527635667</v>
-      </c>
-      <c r="BG5">
-        <v>0.4866571790384734</v>
-      </c>
-      <c r="BH5">
-        <v>0.5336805233527255</v>
-      </c>
-      <c r="BI5">
-        <v>0.5995936559044551</v>
-      </c>
-      <c r="BJ5">
-        <v>0.6957289177791073</v>
-      </c>
-      <c r="BK5">
-        <v>0.778175942139822</v>
-      </c>
-      <c r="BL5">
-        <v>0.7927366236389116</v>
-      </c>
-      <c r="BM5">
-        <v>0.800656132901971</v>
-      </c>
-      <c r="BN5">
-        <v>0.8345221033312384</v>
-      </c>
-      <c r="BO5">
-        <v>0.8880518364952891</v>
-      </c>
-      <c r="BP5">
-        <v>0.939581011573808</v>
-      </c>
-      <c r="BQ5">
-        <v>0.9605873076998074</v>
-      </c>
-      <c r="BR5">
-        <v>0.9759428527970379</v>
-      </c>
-      <c r="BS5">
-        <v>0.9916120527671886</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>1</v>
-      </c>
-      <c r="BV5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:116">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3287,100 +4796,226 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03155888319575428</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.06929720017503585</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="AS6">
-        <v>0.08960241046983657</v>
+        <v>0.1629380950454109</v>
       </c>
       <c r="AT6">
-        <v>0.1068079920318402</v>
+        <v>0.2963626995437914</v>
       </c>
       <c r="AU6">
-        <v>0.1471997067215708</v>
+        <v>0.3171619031436125</v>
       </c>
       <c r="AV6">
-        <v>0.1486445457729026</v>
+        <v>0.3188525468164886</v>
       </c>
       <c r="AW6">
-        <v>0.1488515135956094</v>
+        <v>0.319909307352343</v>
       </c>
       <c r="AX6">
-        <v>0.1490100425408274</v>
+        <v>0.3458995936940883</v>
       </c>
       <c r="AY6">
-        <v>0.1914669111092168</v>
+        <v>0.5085594998699142</v>
       </c>
       <c r="AZ6">
-        <v>0.2844826036169071</v>
+        <v>0.554629136352189</v>
       </c>
       <c r="BA6">
-        <v>0.2978409609430059</v>
+        <v>0.5554824859204265</v>
       </c>
       <c r="BB6">
-        <v>0.3240048452232152</v>
+        <v>0.5554838197945454</v>
       </c>
       <c r="BC6">
-        <v>0.3934527804302365</v>
+        <v>0.5580196784726327</v>
       </c>
       <c r="BD6">
-        <v>0.4636794460898068</v>
+        <v>0.564261583002434</v>
       </c>
       <c r="BE6">
-        <v>0.5211946893567607</v>
+        <v>0.5698565548956834</v>
       </c>
       <c r="BF6">
-        <v>0.5315033959160312</v>
+        <v>0.6001463838529615</v>
       </c>
       <c r="BG6">
-        <v>0.543070429140094</v>
+        <v>0.6632138201677511</v>
       </c>
       <c r="BH6">
-        <v>0.5895575769710163</v>
+        <v>0.7266072632392797</v>
       </c>
       <c r="BI6">
-        <v>0.638345101211379</v>
+        <v>0.7330944168051013</v>
       </c>
       <c r="BJ6">
-        <v>0.7169110155114209</v>
+        <v>0.7340075811847709</v>
       </c>
       <c r="BK6">
-        <v>0.8036808304485517</v>
+        <v>0.7352828224954833</v>
       </c>
       <c r="BL6">
-        <v>0.8337418106778938</v>
+        <v>0.7917333486851216</v>
       </c>
       <c r="BM6">
-        <v>0.8355680286214505</v>
+        <v>0.8950098832355703</v>
       </c>
       <c r="BN6">
-        <v>0.8593213431010933</v>
+        <v>0.9106127408823637</v>
       </c>
       <c r="BO6">
-        <v>0.8933321325295061</v>
+        <v>0.9361948505009132</v>
       </c>
       <c r="BP6">
-        <v>0.9377327295883914</v>
+        <v>0.9383678408388398</v>
       </c>
       <c r="BQ6">
-        <v>0.9591117755087057</v>
+        <v>0.9458506906790658</v>
       </c>
       <c r="BR6">
-        <v>0.9698350054126954</v>
+        <v>0.9526071526695966</v>
       </c>
       <c r="BS6">
-        <v>0.9826997890318669</v>
+        <v>0.9570109635174507</v>
       </c>
       <c r="BT6">
-        <v>0.9947923484638741</v>
+        <v>0.9570364318422873</v>
       </c>
       <c r="BU6">
-        <v>0.9960218061212097</v>
+        <v>0.9972575138617829</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.998171221586047</v>
+      </c>
+      <c r="BW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CS6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CT6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CU6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CX6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3398,302 +5033,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.01154938808563035</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="F2">
-        <v>0.5455093325948541</v>
+        <v>0.5265150108640966</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.01149993943284513</v>
+        <v>0.108750512106233</v>
       </c>
       <c r="F3">
-        <v>0.5065876853131951</v>
+        <v>0.5297383443761063</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L3">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.01300687394110644</v>
+        <v>0.1006016485948608</v>
       </c>
       <c r="F4">
-        <v>0.512800726319833</v>
+        <v>0.5565743222881943</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>0.01114514423453861</v>
+        <v>0.1803251474697168</v>
       </c>
       <c r="F5">
-        <v>0.5336805233527255</v>
+        <v>0.5045277300245329</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L5">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>0.03155888319575428</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="F6">
-        <v>0.5211946893567607</v>
+        <v>0.5085594998699142</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L6">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3711,302 +5331,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.01154938808563035</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="F2">
-        <v>0.7591316313296794</v>
+        <v>0.7360013818807228</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.01149993943284513</v>
+        <v>0.108750512106233</v>
       </c>
       <c r="F3">
-        <v>0.7250658976576722</v>
+        <v>0.7595978699250695</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L3">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.01300687394110644</v>
+        <v>0.1006016485948608</v>
       </c>
       <c r="F4">
-        <v>0.7799128482418461</v>
+        <v>0.7653453659232412</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.01114514423453861</v>
+        <v>0.1803251474697168</v>
       </c>
       <c r="F5">
-        <v>0.778175942139822</v>
+        <v>0.7041973852751053</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L5">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>0.03155888319575428</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="F6">
-        <v>0.7169110155114209</v>
+        <v>0.7266072632392797</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L6">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4024,302 +5629,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.01154938808563035</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="F2">
-        <v>0.814668539419967</v>
+        <v>0.8570961486664613</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.01149993943284513</v>
+        <v>0.108750512106233</v>
       </c>
       <c r="F3">
-        <v>0.8377602989274928</v>
+        <v>0.8035230744583975</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L3">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.01300687394110644</v>
+        <v>0.1006016485948608</v>
       </c>
       <c r="F4">
-        <v>0.8021514423821992</v>
+        <v>0.8100203566971157</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.01114514423453861</v>
+        <v>0.1803251474697168</v>
       </c>
       <c r="F5">
-        <v>0.800656132901971</v>
+        <v>0.8536150792367106</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L5">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>0.03155888319575428</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="F6">
-        <v>0.8036808304485517</v>
+        <v>0.8950098832355703</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L6">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4337,302 +5927,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.01154938808563035</v>
+        <v>0.1270696195021825</v>
       </c>
       <c r="F2">
-        <v>0.9305859043522665</v>
+        <v>0.908764775911542</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L2">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.01149993943284513</v>
+        <v>0.108750512106233</v>
       </c>
       <c r="F3">
-        <v>0.9000282889037556</v>
+        <v>0.9135676956593014</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L3">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.01300687394110644</v>
+        <v>0.1006016485948608</v>
       </c>
       <c r="F4">
-        <v>0.9346881180984713</v>
+        <v>0.9015452837731356</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L4">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.01114514423453861</v>
+        <v>0.1803251474697168</v>
       </c>
       <c r="F5">
-        <v>0.939581011573808</v>
+        <v>0.9367889143446007</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L5">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>0.03155888319575428</v>
+        <v>0.1290467130554869</v>
       </c>
       <c r="F6">
-        <v>0.9377327295883914</v>
+        <v>0.9106127408823637</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L6">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
